--- a/★★★行程★★★/2017/5月/澳新商旅/酒店住宿.xlsx
+++ b/★★★行程★★★/2017/5月/澳新商旅/酒店住宿.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="132" windowWidth="24120" windowHeight="13620"/>
@@ -30,8 +30,8 @@
     <definedName name="CompanySetup_YourPhone">公司设置!$C$10</definedName>
     <definedName name="CompanySetup_YourURL">公司设置!$C$12</definedName>
     <definedName name="InvoiceNumberDisplay">发票!$C$2</definedName>
-    <definedName name="InvoiceTotal">发票!$E$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">发票!$A$1:$L$39</definedName>
+    <definedName name="InvoiceTotal">发票!$E$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">发票!$A$1:$L$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">公司设置!$A$1:$M$33</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -222,67 +222,63 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>豪华套间 （含早餐）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   海景大床豪华房 (儿童加床到店另付15NZD，不含早餐)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山景套间 (早餐到店另付 14NZD)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.8-6.9 霍基剃卡 （Shining Star）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.9-6.10 福克斯冰川小镇（Lake Matheson Motel）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.10-6.11 瓦纳卡（Edgewater）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.11-6.14（Novotel) 皇后镇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>湖景大床房（含早餐）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>湖景豪华公寓 (早餐到店另付 28NZD)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>豪华家庭房(早餐到店另付 29NZD)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>湖景套间别墅（含早餐 儿童加床40NZD）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.14-6.15 但尼丁（Scenic Hotel）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.15-6.16 特卡波（Peppers）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.16-6.17 基督城（Novotel Christchurch）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家庭双大床房（含早餐）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.7-6.8 基督城（Fino）</t>
+    <t>豪华家庭房</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豪华套间（双床）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山景双卧室套间</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湖景豪华公寓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湖景一卧室套间别墅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.28-5.29 基督城（Fino Plus）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.29-5.30 霍基蒂卡 （Beachfront Hotel）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">海景套房公寓3人 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.30-5.31 福克斯冰川小镇（Lake Matheson Motel）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.31-6.1 瓦纳卡（Edgewater）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.1-6.4 皇后镇(Peppers Beacon)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湖景双卧室套间</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.5-6.6 特卡波（Peppers）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.6-6.7 基督城（Fino Plus）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.4-6.5 但尼丁（Pacific Park Motel）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1843,7 +1839,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="InvoiceDetails" displayName="InvoiceDetails" ref="B14:E33" headerRowDxfId="12" dataDxfId="11" totalsRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="InvoiceDetails" displayName="InvoiceDetails" ref="B14:E32" headerRowDxfId="12" dataDxfId="11" totalsRowDxfId="10">
   <tableColumns count="4">
     <tableColumn id="1" name="Qty" dataDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="2" name="Details" dataDxfId="7" totalsRowDxfId="6"/>
@@ -2107,10 +2103,10 @@
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B1:H48"/>
+  <dimension ref="B1:H47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.6" x14ac:dyDescent="0.2"/>
@@ -2140,7 +2136,7 @@
       <c r="C3" s="49"/>
       <c r="D3" s="47">
         <f>InvoiceTotal</f>
-        <v>32778</v>
+        <v>16595</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="1" t="s">
@@ -2231,7 +2227,7 @@
     <row r="15" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="15"/>
       <c r="C15" s="46" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16">
@@ -2241,23 +2237,23 @@
     </row>
     <row r="16" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="16">
-        <v>825</v>
+        <v>1170</v>
       </c>
       <c r="E16" s="16">
         <f>IFERROR(InvoiceDetails[[#This Row],[Unit]]*InvoiceDetails[[#This Row],[Qty]],"")</f>
-        <v>2475</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="15"/>
       <c r="C17" s="46" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16">
@@ -2265,25 +2261,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="15">
-        <v>3</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="D18" s="16">
-        <v>750</v>
+        <v>1115</v>
       </c>
       <c r="E18" s="16">
         <f>IFERROR(InvoiceDetails[[#This Row],[Unit]]*InvoiceDetails[[#This Row],[Qty]],"")</f>
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="15"/>
       <c r="C19" s="46" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16">
@@ -2291,25 +2287,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>54</v>
       </c>
       <c r="D20" s="16">
-        <v>540</v>
+        <v>1285</v>
       </c>
       <c r="E20" s="16">
         <f>IFERROR(InvoiceDetails[[#This Row],[Unit]]*InvoiceDetails[[#This Row],[Qty]],"")</f>
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
       <c r="C21" s="46" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16">
@@ -2317,25 +2313,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D22" s="16">
-        <v>936</v>
+        <v>1400</v>
       </c>
       <c r="E22" s="16">
         <f>IFERROR(InvoiceDetails[[#This Row],[Unit]]*InvoiceDetails[[#This Row],[Qty]],"")</f>
-        <v>2808</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="15"/>
       <c r="C23" s="46" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="16">
@@ -2343,25 +2339,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D24" s="16">
-        <v>4485</v>
+        <v>7710</v>
       </c>
       <c r="E24" s="16">
         <f>IFERROR(InvoiceDetails[[#This Row],[Unit]]*InvoiceDetails[[#This Row],[Qty]],"")</f>
-        <v>13455</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7710</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="15"/>
       <c r="C25" s="46" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16">
@@ -2369,22 +2365,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D26" s="16">
-        <v>925</v>
+        <v>1095</v>
       </c>
       <c r="E26" s="16">
         <f>IFERROR(InvoiceDetails[[#This Row],[Unit]]*InvoiceDetails[[#This Row],[Qty]],"")</f>
-        <v>2775</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="15"/>
       <c r="C27" s="46" t="s">
         <v>64</v>
@@ -2395,22 +2391,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D28" s="16">
-        <v>1535</v>
+        <v>1870</v>
       </c>
       <c r="E28" s="16">
         <f>IFERROR(InvoiceDetails[[#This Row],[Unit]]*InvoiceDetails[[#This Row],[Qty]],"")</f>
-        <v>4605</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="15"/>
       <c r="C29" s="46" t="s">
         <v>65</v>
@@ -2421,22 +2417,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D30" s="16">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="E30" s="16">
         <f>IFERROR(InvoiceDetails[[#This Row],[Unit]]*InvoiceDetails[[#This Row],[Qty]],"")</f>
-        <v>2790</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
@@ -2445,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -2453,91 +2449,93 @@
         <f>IFERROR(InvoiceDetails[[#This Row],[Unit]]*InvoiceDetails[[#This Row],[Qty]],"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16">
-        <f>IFERROR(InvoiceDetails[[#This Row],[Unit]]*InvoiceDetails[[#This Row],[Qty]],"")</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20" t="s">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="21"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="25">
+        <f>SUM(InvoiceDetails[Price])-E33</f>
+        <v>16595</v>
+      </c>
     </row>
     <row r="35" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="25">
-        <f>SUM(InvoiceDetails[Price])-E34</f>
-        <v>32778</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="28"/>
-    </row>
-    <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="51" t="str">
+      <c r="E35" s="28"/>
+    </row>
+    <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="51" t="str">
         <f>REPT(CompanySetup_YourCurrencyAbbreviation,LEN(CompanySetup_YourCurrencyAbbreviation)&gt;0) &amp; " Total"</f>
         <v>RMB Total</v>
       </c>
-      <c r="E37" s="53">
-        <f>E35+E36</f>
-        <v>32778</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="54"/>
-    </row>
-    <row r="39" spans="2:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="E36" s="53">
+        <f>E34+E35</f>
+        <v>16595</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="2:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="32" t="s">
-        <v>27</v>
+      <c r="B40" s="7" t="str">
+        <f>"受益人名称：" &amp; CompanySetup_BankBeneficiaryName</f>
+        <v>受益人名称：嘉元实业</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="33" t="str">
+        <f>IFERROR(CompanySetup_YourName,"")</f>
+        <v>Heart Travel</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="7" t="str">
-        <f>"受益人名称：" &amp; CompanySetup_BankBeneficiaryName</f>
-        <v>受益人名称：嘉元实业</v>
+        <f>"银行名称： " &amp; CompanySetup_BankName</f>
+        <v>银行名称： 世邦银行</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="33" t="str">
-        <f>IFERROR(CompanySetup_YourName,"")</f>
-        <v>Heart Travel</v>
+      <c r="E41" s="43" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="7" t="str">
-        <f>"银行名称： " &amp; CompanySetup_BankName</f>
-        <v>银行名称： 世邦银行</v>
+        <f>"银行地址：" &amp; CompanySetup_BankAddress</f>
+        <v>银行地址：广东省深圳市第一大街，邮政编码 09876</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2547,76 +2545,65 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="7" t="str">
-        <f>"银行地址：" &amp; CompanySetup_BankAddress</f>
-        <v>银行地址：广东省深圳市第一大街，邮政编码 09876</v>
+        <f>"帐号：" &amp; CompanySetup_BankAccount</f>
+        <v>帐号：1234567</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E43" s="33" t="str">
+        <f>IFERROR(CompanySetup_YourURL,"")</f>
+        <v>www.heart-travel.co.nz</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="7" t="str">
-        <f>"帐号：" &amp; CompanySetup_BankAccount</f>
-        <v>帐号：1234567</v>
+        <f>"路由号码 (银行国际代码)：" &amp; CompanySetup_BankRouting</f>
+        <v>路由号码 (银行国际代码)：9876543210</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="33" t="str">
-        <f>IFERROR(CompanySetup_YourURL,"")</f>
-        <v>www.heart-travel.co.nz</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IFERROR(CompanySetup_YourEmail,"")</f>
+        <v>accounts@heart-travel.co.nz</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="7" t="str">
-        <f>"路由号码 (银行国际代码)：" &amp; CompanySetup_BankRouting</f>
-        <v>路由号码 (银行国际代码)：9876543210</v>
+        <f>"付款参考：" &amp; InvoiceNumberDisplay</f>
+        <v>付款参考：0007</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="33" t="str">
-        <f>IFERROR(CompanySetup_YourEmail,"")</f>
-        <v>accounts@heart-travel.co.nz</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B46" s="7" t="str">
-        <f>"付款参考：" &amp; InvoiceNumberDisplay</f>
-        <v>付款参考：0007</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="33" t="str">
         <f>IFERROR(IF(LEN(Client_PO),"Contract/PO: " &amp; Client_PO,""),"")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="H47" s="35"/>
-    </row>
-    <row r="48" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="50" t="str">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="H46" s="35"/>
+    </row>
+    <row r="47" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="50" t="str">
         <f>UPPER("付款应通过银行转帐或支票支付给 " &amp; CompanySetup_CheckPayee &amp; ".")</f>
         <v>付款应通过银行转帐或支票支付给 嘉元实业.</v>
       </c>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="H48" s="35"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="H47" s="35"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
     <mergeCell ref="D3:E4"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
